--- a/data/3.7_1.xlsx
+++ b/data/3.7_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swj_795/Desktop/北梦测/Bei-Projects/3.5Bei-webATFarme/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swj_795/Desktop/北梦测/Bei-Projects/3.7.1Bei-WebATFarme/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC515626-AD44-6341-A32C-3605DC51F1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EF8E5B-ABBC-1A41-9FEF-C678579FCD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>编号</t>
   </si>
@@ -149,18 +149,55 @@
   </si>
   <si>
     <t>wait</t>
+  </si>
+  <si>
+    <t>test_2</t>
+  </si>
+  <si>
+    <t>XX1</t>
+  </si>
+  <si>
+    <t>xxx1</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>//input[@id='passwordA']</t>
+  </si>
+  <si>
+    <t>清空密码</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>点击注册按钮</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>//button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -172,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -195,13 +232,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,6 +283,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,11 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -490,11 +579,13 @@
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -601,7 +692,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1" t="b">
+      <c r="L3" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -629,7 +720,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -651,17 +742,212 @@
         <v>5</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="1">
+        <v>123456</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="L6:L13"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="D6:D13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{0F583B90-C579-FF4E-9D96-B993E6B86B4D}"/>
+    <hyperlink ref="J6" r:id="rId2" xr:uid="{2E2D2188-DE49-1F4B-957F-3E714453F397}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
